--- a/cmip6/responsible_parties/cmip6_csiro-arccss-bom_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_csiro-arccss-bom_responsible_parties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA8D93-E539-0143-AC4B-6DF10DC868EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1746,7 +1746,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1800,8 +1800,8 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2130,8 +2130,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/cmip6/responsible_parties/cmip6_csiro-arccss-bom_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_csiro-arccss-bom_responsible_parties.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22108"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mac570\OneDrive - CSIRO\ES-DOC\CM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27084B27-D21F-429C-BA73-E9C516654289}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Responsibile Parties" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -66,6 +74,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>ORCID ID</t>
   </si>
   <si>
     <t>TAYLOR-KARL</t>
@@ -142,14 +153,167 @@
     <t>http://www.wcrp-climate.org/wgcm-overview</t>
   </si>
   <si>
-    <t>ORCID ID</t>
+    <t>Mackallah,C</t>
+  </si>
+  <si>
+    <t>Chloe Mackallah</t>
+  </si>
+  <si>
+    <t>107 - 121 Station Street
+Aspendale Vic 3195
+Australia</t>
+  </si>
+  <si>
+    <t>chloe.mackallah@csiro.au</t>
+  </si>
+  <si>
+    <t>Dix,M</t>
+  </si>
+  <si>
+    <t>Martin Dix</t>
+  </si>
+  <si>
+    <t>martin.dix@csiro.au</t>
+  </si>
+  <si>
+    <t>Bi,D</t>
+  </si>
+  <si>
+    <t>Dave Bi</t>
+  </si>
+  <si>
+    <t>dave.bi@csiro.au</t>
+  </si>
+  <si>
+    <t>Harman,I</t>
+  </si>
+  <si>
+    <t>Ian Harman</t>
+  </si>
+  <si>
+    <t>Building 101, Clunies Ross Street
+Black Mountain ACT 2601
+Australia</t>
+  </si>
+  <si>
+    <t>ian.harman@csiro.au</t>
+  </si>
+  <si>
+    <t>Marsland,S</t>
+  </si>
+  <si>
+    <t>Simon Marsland</t>
+  </si>
+  <si>
+    <t>simon.marsland@csiro.au</t>
+  </si>
+  <si>
+    <t>Dobrohotoff,P</t>
+  </si>
+  <si>
+    <t>Peter Dobrohotoff</t>
+  </si>
+  <si>
+    <t>peter.dobrohotoff@csiro.au</t>
+  </si>
+  <si>
+    <t>Sullivan,A</t>
+  </si>
+  <si>
+    <t>Arnold Sullivan</t>
+  </si>
+  <si>
+    <t>arnold.sullivan@csiro.au</t>
+  </si>
+  <si>
+    <t>Ofarrell,S</t>
+  </si>
+  <si>
+    <t>Siobhan O'Farrell</t>
+  </si>
+  <si>
+    <t>siobhan.o'farrell@csiro.au</t>
+  </si>
+  <si>
+    <t>Wang,Y</t>
+  </si>
+  <si>
+    <t>Yingping Wang</t>
+  </si>
+  <si>
+    <t>yingping.wang@csiro.au</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4614-6203</t>
+  </si>
+  <si>
+    <t>Ziehn,T</t>
+  </si>
+  <si>
+    <t>Tilo Ziehn</t>
+  </si>
+  <si>
+    <t>tilo.ziehn@csiro.au</t>
+  </si>
+  <si>
+    <t>Chamberlain,M</t>
+  </si>
+  <si>
+    <t>Matthew Chamberlain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castray Esplanade
+Battery Point Tas 7004
+Australia </t>
+  </si>
+  <si>
+    <t>matthew.chamberlain@csiro.au</t>
+  </si>
+  <si>
+    <t>Lenton,A</t>
+  </si>
+  <si>
+    <t>Andrew Lenton</t>
+  </si>
+  <si>
+    <t>andrew.lenton@csiro.au</t>
+  </si>
+  <si>
+    <t>Law,R</t>
+  </si>
+  <si>
+    <t>Rachel Law</t>
+  </si>
+  <si>
+    <t>rachel.law@csiro.au</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7346-0927</t>
+  </si>
+  <si>
+    <t>Woodhouse,M</t>
+  </si>
+  <si>
+    <t>Matthew Woodhouse</t>
+  </si>
+  <si>
+    <t>matthew.woodhouse@csiro.au</t>
+  </si>
+  <si>
+    <t>CSIRO</t>
+  </si>
+  <si>
+    <t>csiroenquiries@csiro.au</t>
+  </si>
+  <si>
+    <t>https://research.csiro.au/access/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -220,6 +384,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -403,12 +573,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -529,8 +702,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1691,17 +1868,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="34.35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1710,14 +1887,14 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1728,14 +1905,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1746,35 +1923,35 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.5" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14.85" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.85" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14.85" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14.85" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1800,23 +1977,23 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="24" style="16" customWidth="1"/>
-    <col min="6" max="6" width="54.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="16" customWidth="1"/>
-    <col min="8" max="256" width="16.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="16" customWidth="1"/>
+    <col min="8" max="256" width="16.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="30.95" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +2004,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -1847,54 +2024,54 @@
         <v>11</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.2" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="25" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="44.1" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -1903,7 +2080,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="21" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -1912,7 +2089,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="21" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -1921,7 +2098,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="21" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -1930,7 +2107,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -1939,7 +2116,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="21" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -1948,7 +2125,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -1957,7 +2134,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -1966,7 +2143,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -1975,7 +2152,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -1984,7 +2161,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -1993,7 +2170,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -2002,7 +2179,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="21" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -2011,7 +2188,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="21" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -2020,7 +2197,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="21" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -2029,7 +2206,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="21" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -2038,7 +2215,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="21" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -2047,7 +2224,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -2056,7 +2233,7 @@
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="21" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -2065,7 +2242,7 @@
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -2074,7 +2251,7 @@
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="21" customHeight="1">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -2083,7 +2260,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="21" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2092,7 +2269,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="21" customHeight="1">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -2101,7 +2278,7 @@
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="21" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -2130,21 +2307,22 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="36" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="36" customWidth="1"/>
-    <col min="6" max="7" width="26.5" style="36" customWidth="1"/>
-    <col min="8" max="256" width="16.33203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="36" customWidth="1"/>
+    <col min="3" max="4" width="29.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="36" customWidth="1"/>
+    <col min="8" max="256" width="16.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="30.95" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2333,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -2175,145 +2353,301 @@
         <v>11</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38.25">
+      <c r="A3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+    <row r="4" spans="1:7" ht="38.25">
+      <c r="A4" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+    <row r="5" spans="1:7" ht="38.25">
+      <c r="A5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+    <row r="6" spans="1:7" ht="38.25">
+      <c r="A6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>36</v>
+      </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+    <row r="7" spans="1:7" ht="38.25">
+      <c r="A7" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+    <row r="8" spans="1:7" ht="38.25">
+      <c r="A8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+    <row r="9" spans="1:7" ht="38.25">
+      <c r="A9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+    <row r="10" spans="1:7" ht="38.25">
+      <c r="A10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+    <row r="11" spans="1:7" ht="38.25">
+      <c r="A11" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>51</v>
+      </c>
       <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="G11" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="38.25">
+      <c r="A12" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+    <row r="13" spans="1:7" ht="38.25">
+      <c r="A13" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+    <row r="14" spans="1:7" ht="38.25">
+      <c r="A14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+    <row r="15" spans="1:7" ht="38.25">
+      <c r="A15" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="G15" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25">
+      <c r="A16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+    <row r="17" spans="1:7" ht="38.25">
+      <c r="A17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -2322,7 +2656,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -2331,7 +2665,7 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -2340,7 +2674,7 @@
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -2349,7 +2683,7 @@
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2358,7 +2692,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -2367,7 +2701,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="43"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -2376,7 +2710,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="43"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -2385,7 +2719,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -2394,7 +2728,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="43"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -2403,7 +2737,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="43"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -2412,7 +2746,7 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="43"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -2421,7 +2755,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="43"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -2431,6 +2765,10 @@
       <c r="G30" s="41"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{26FD444C-EF01-4218-8CC0-428C15D6CE64}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{8E46DBC2-B703-4C68-B2BE-E04FD15931C0}"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
